--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H2">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I2">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J2">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N2">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O2">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P2">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q2">
-        <v>5.51997663433791</v>
+        <v>9.56570042107689</v>
       </c>
       <c r="R2">
-        <v>5.51997663433791</v>
+        <v>86.09130378969201</v>
       </c>
       <c r="S2">
-        <v>0.0003147042811805054</v>
+        <v>0.0004284965684406051</v>
       </c>
       <c r="T2">
-        <v>0.0003147042811805054</v>
+        <v>0.0004522524968140392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H3">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I3">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J3">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N3">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P3">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q3">
-        <v>34.0372087057867</v>
+        <v>44.32720762441778</v>
       </c>
       <c r="R3">
-        <v>34.0372087057867</v>
+        <v>398.94486861976</v>
       </c>
       <c r="S3">
-        <v>0.001940525478407256</v>
+        <v>0.001985641983284997</v>
       </c>
       <c r="T3">
-        <v>0.001940525478407256</v>
+        <v>0.002095726339157127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H4">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I4">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J4">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N4">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O4">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P4">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q4">
-        <v>49.02296378402218</v>
+        <v>62.46016739008444</v>
       </c>
       <c r="R4">
-        <v>49.02296378402218</v>
+        <v>562.14150651076</v>
       </c>
       <c r="S4">
-        <v>0.00279489164555841</v>
+        <v>0.002797909845880782</v>
       </c>
       <c r="T4">
-        <v>0.00279489164555841</v>
+        <v>0.002953026481087355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H5">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I5">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J5">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N5">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O5">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P5">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q5">
-        <v>51.96776859780671</v>
+        <v>62.03103357736178</v>
       </c>
       <c r="R5">
-        <v>51.96776859780671</v>
+        <v>558.279302196256</v>
       </c>
       <c r="S5">
-        <v>0.002962780523271043</v>
+        <v>0.002778686751067115</v>
       </c>
       <c r="T5">
-        <v>0.002962780523271043</v>
+        <v>0.002932737654370231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.951627571548234</v>
+        <v>1.130078666666667</v>
       </c>
       <c r="H6">
-        <v>0.951627571548234</v>
+        <v>3.390236</v>
       </c>
       <c r="I6">
-        <v>0.009362698460394505</v>
+        <v>0.009293988592650694</v>
       </c>
       <c r="J6">
-        <v>0.009362698460394505</v>
+        <v>0.009350747007447273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N6">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O6">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P6">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q6">
-        <v>23.67570371040297</v>
+        <v>29.09365660311133</v>
       </c>
       <c r="R6">
-        <v>23.67570371040297</v>
+        <v>174.561939618668</v>
       </c>
       <c r="S6">
-        <v>0.001349796531977291</v>
+        <v>0.001303253443977195</v>
       </c>
       <c r="T6">
-        <v>0.001349796531977291</v>
+        <v>0.0009170040360185209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H7">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J7">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N7">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O7">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P7">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q7">
-        <v>288.9629713350616</v>
+        <v>8.50151837949789</v>
       </c>
       <c r="R7">
-        <v>288.9629713350616</v>
+        <v>76.513665415481</v>
       </c>
       <c r="S7">
-        <v>0.01647432411508587</v>
+        <v>0.0003808264206270711</v>
       </c>
       <c r="T7">
-        <v>0.01647432411508587</v>
+        <v>0.0004019395072593671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H8">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J8">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N8">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P8">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q8">
-        <v>1781.799745743936</v>
+        <v>39.39581564779778</v>
       </c>
       <c r="R8">
-        <v>1781.799745743936</v>
+        <v>354.56234083018</v>
       </c>
       <c r="S8">
-        <v>0.1015837648122962</v>
+        <v>0.001764739754843756</v>
       </c>
       <c r="T8">
-        <v>0.1015837648122962</v>
+        <v>0.001862577250640717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H9">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J9">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N9">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O9">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P9">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q9">
-        <v>2566.282833619508</v>
+        <v>55.51148767771445</v>
       </c>
       <c r="R9">
-        <v>2566.282833619508</v>
+        <v>499.60338909943</v>
       </c>
       <c r="S9">
-        <v>0.1463086255539861</v>
+        <v>0.002486642998616481</v>
       </c>
       <c r="T9">
-        <v>0.1463086255539861</v>
+        <v>0.002624502942700544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H10">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J10">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N10">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O10">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P10">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q10">
-        <v>2720.439201546786</v>
+        <v>55.13009490608978</v>
       </c>
       <c r="R10">
-        <v>2720.439201546786</v>
+        <v>496.170854154808</v>
       </c>
       <c r="S10">
-        <v>0.1550973709005088</v>
+        <v>0.002469558468819882</v>
       </c>
       <c r="T10">
-        <v>0.1550973709005088</v>
+        <v>0.002606471243437411</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.8163577302768</v>
+        <v>1.004357666666667</v>
       </c>
       <c r="H11">
-        <v>49.8163577302768</v>
+        <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.4901240251634342</v>
+        <v>0.008260034431474328</v>
       </c>
       <c r="J11">
-        <v>0.4901240251634342</v>
+        <v>0.008310478485264795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N11">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O11">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P11">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q11">
-        <v>1239.389610827071</v>
+        <v>25.85699378512483</v>
       </c>
       <c r="R11">
-        <v>1239.389610827071</v>
+        <v>155.141962710749</v>
       </c>
       <c r="S11">
-        <v>0.07065993978155721</v>
+        <v>0.001158266788567137</v>
       </c>
       <c r="T11">
-        <v>0.07065993978155721</v>
+        <v>0.0008149875412267561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H12">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I12">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J12">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N12">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O12">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P12">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q12">
-        <v>283.7527420292992</v>
+        <v>577.0809676943275</v>
       </c>
       <c r="R12">
-        <v>283.7527420292992</v>
+        <v>5193.728709248947</v>
       </c>
       <c r="S12">
-        <v>0.01617727911343574</v>
+        <v>0.02585040336665331</v>
       </c>
       <c r="T12">
-        <v>0.01617727911343574</v>
+        <v>0.02728355447224429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H13">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I13">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J13">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N13">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P13">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q13">
-        <v>1749.672497019356</v>
+        <v>2674.178235262629</v>
       </c>
       <c r="R13">
-        <v>1749.672497019356</v>
+        <v>24067.60411736366</v>
       </c>
       <c r="S13">
-        <v>0.09975212975549512</v>
+        <v>0.1197900986616502</v>
       </c>
       <c r="T13">
-        <v>0.09975212975549512</v>
+        <v>0.1264312837101303</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H14">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I14">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J14">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N14">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O14">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P14">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q14">
-        <v>2520.010738738896</v>
+        <v>3768.106072023712</v>
       </c>
       <c r="R14">
-        <v>2520.010738738896</v>
+        <v>33912.95464821341</v>
       </c>
       <c r="S14">
-        <v>0.1436705661340361</v>
+        <v>0.1687927125362135</v>
       </c>
       <c r="T14">
-        <v>0.1436705661340361</v>
+        <v>0.1781506114887317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H15">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I15">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J15">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N15">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O15">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P15">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q15">
-        <v>2671.387546288131</v>
+        <v>3742.217224891233</v>
       </c>
       <c r="R15">
-        <v>2671.387546288131</v>
+        <v>33679.9550240211</v>
       </c>
       <c r="S15">
-        <v>0.1523008434998561</v>
+        <v>0.1676330188735615</v>
       </c>
       <c r="T15">
-        <v>0.1523008434998561</v>
+        <v>0.1769266241966455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.9181296778954</v>
+        <v>68.17555033333333</v>
       </c>
       <c r="H16">
-        <v>48.9181296778954</v>
+        <v>204.526651</v>
       </c>
       <c r="I16">
-        <v>0.4812867040784302</v>
+        <v>0.5606890969499024</v>
       </c>
       <c r="J16">
-        <v>0.4812867040784302</v>
+        <v>0.5641132268613344</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.8791695598775</v>
+        <v>25.7448065</v>
       </c>
       <c r="N16">
-        <v>24.8791695598775</v>
+        <v>51.489613</v>
       </c>
       <c r="O16">
-        <v>0.1441674681382846</v>
+        <v>0.1402254189345309</v>
       </c>
       <c r="P16">
-        <v>0.1441674681382846</v>
+        <v>0.09806746298324462</v>
       </c>
       <c r="Q16">
-        <v>1217.042442808435</v>
+        <v>1755.166351362677</v>
       </c>
       <c r="R16">
-        <v>1217.042442808435</v>
+        <v>10530.99810817606</v>
       </c>
       <c r="S16">
-        <v>0.0693858855756071</v>
+        <v>0.07862286351182388</v>
       </c>
       <c r="T16">
-        <v>0.0693858855756071</v>
+        <v>0.05532115299358258</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H17">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I17">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J17">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.80056400147936</v>
+        <v>8.464632333333334</v>
       </c>
       <c r="N17">
-        <v>5.80056400147936</v>
+        <v>25.393897</v>
       </c>
       <c r="O17">
-        <v>0.03361256186042385</v>
+        <v>0.04610470135281236</v>
       </c>
       <c r="P17">
-        <v>0.03361256186042385</v>
+        <v>0.0483653868994476</v>
       </c>
       <c r="Q17">
-        <v>11.33543179788231</v>
+        <v>415.3448676042742</v>
       </c>
       <c r="R17">
-        <v>11.33543179788231</v>
+        <v>3738.103808438468</v>
       </c>
       <c r="S17">
-        <v>0.0006462543507217353</v>
+        <v>0.01860541754952984</v>
       </c>
       <c r="T17">
-        <v>0.0006462543507217353</v>
+        <v>0.01963690531213425</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H18">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I18">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J18">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.7673629090112</v>
+        <v>39.22488666666667</v>
       </c>
       <c r="N18">
-        <v>35.7673629090112</v>
+        <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2072613452858643</v>
+        <v>0.2136479901487249</v>
       </c>
       <c r="P18">
-        <v>0.2072613452858643</v>
+        <v>0.2241239483314023</v>
       </c>
       <c r="Q18">
-        <v>69.89639330620261</v>
+        <v>1924.697342754363</v>
       </c>
       <c r="R18">
-        <v>69.89639330620261</v>
+        <v>17322.27608478926</v>
       </c>
       <c r="S18">
-        <v>0.003984925239665758</v>
+        <v>0.08621702231441504</v>
       </c>
       <c r="T18">
-        <v>0.003984925239665758</v>
+        <v>0.09099690985033101</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H19">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I19">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J19">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.5148627989678</v>
+        <v>55.27063666666667</v>
       </c>
       <c r="N19">
-        <v>51.5148627989678</v>
+        <v>165.81191</v>
       </c>
       <c r="O19">
-        <v>0.2985134742276688</v>
+        <v>0.3010451129769252</v>
       </c>
       <c r="P19">
-        <v>0.2985134742276688</v>
+        <v>0.3158064782135008</v>
       </c>
       <c r="Q19">
-        <v>100.6700751316659</v>
+        <v>2712.034541455446</v>
       </c>
       <c r="R19">
-        <v>100.6700751316659</v>
+        <v>24408.31087309901</v>
       </c>
       <c r="S19">
-        <v>0.005739390894088159</v>
+        <v>0.121485875926608</v>
       </c>
       <c r="T19">
-        <v>0.005739390894088159</v>
+        <v>0.1282210751777927</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.95419476364563</v>
+        <v>49.06827033333334</v>
       </c>
       <c r="H20">
-        <v>1.95419476364563</v>
+        <v>147.204811</v>
       </c>
       <c r="I20">
-        <v>0.01922657229774113</v>
+        <v>0.4035470787925388</v>
       </c>
       <c r="J20">
-        <v>0.01922657229774113</v>
+        <v>0.4060115419516788</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.609355751703</v>
+        <v>54.89089866666666</v>
       </c>
       <c r="N20">
-        <v>54.609355751703</v>
+        <v>164.672696</v>
       </c>
       <c r="O20">
-        <v>0.3164451504877584</v>
+        <v>0.2989767765870066</v>
       </c>
       <c r="P20">
-        <v>0.3164451504877584</v>
+        <v>0.3136367235724047</v>
       </c>
       <c r="Q20">
-        <v>106.7173170560394</v>
+        <v>2693.401454615606</v>
       </c>
       <c r="R20">
-        <v>106.7173170560394</v>
+        <v>24240.61309154046</v>
       </c>
       <c r="S20">
-        <v>0.006084155564122459</v>
+        <v>0.120651204818496</v>
       </c>
       <c r="T20">
-        <v>0.006084155564122459</v>
+        <v>0.1273401297503045</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.06827033333334</v>
+      </c>
+      <c r="H21">
+        <v>147.204811</v>
+      </c>
+      <c r="I21">
+        <v>0.4035470787925388</v>
+      </c>
+      <c r="J21">
+        <v>0.4060115419516788</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>25.7448065</v>
+      </c>
+      <c r="N21">
+        <v>51.489613</v>
+      </c>
+      <c r="O21">
+        <v>0.1402254189345309</v>
+      </c>
+      <c r="P21">
+        <v>0.09806746298324462</v>
+      </c>
+      <c r="Q21">
+        <v>1263.253125021357</v>
+      </c>
+      <c r="R21">
+        <v>7579.518750128143</v>
+      </c>
+      <c r="S21">
+        <v>0.05658755818348989</v>
+      </c>
+      <c r="T21">
+        <v>0.03981652186111632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.214174</v>
+      </c>
+      <c r="H22">
+        <v>4.428348</v>
+      </c>
+      <c r="I22">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J22">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.464632333333334</v>
+      </c>
+      <c r="N22">
+        <v>25.393897</v>
+      </c>
+      <c r="O22">
+        <v>0.04610470135281236</v>
+      </c>
+      <c r="P22">
+        <v>0.0483653868994476</v>
+      </c>
+      <c r="Q22">
+        <v>18.742168832026</v>
+      </c>
+      <c r="R22">
+        <v>112.453012992156</v>
+      </c>
+      <c r="S22">
+        <v>0.0008395574475615339</v>
+      </c>
+      <c r="T22">
+        <v>0.0005907351109956526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.214174</v>
+      </c>
+      <c r="H23">
+        <v>4.428348</v>
+      </c>
+      <c r="I23">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J23">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>39.22488666666667</v>
+      </c>
+      <c r="N23">
+        <v>117.67466</v>
+      </c>
+      <c r="O23">
+        <v>0.2136479901487249</v>
+      </c>
+      <c r="P23">
+        <v>0.2241239483314023</v>
+      </c>
+      <c r="Q23">
+        <v>86.85072421028001</v>
+      </c>
+      <c r="R23">
+        <v>521.10434526168</v>
+      </c>
+      <c r="S23">
+        <v>0.003890487434530878</v>
+      </c>
+      <c r="T23">
+        <v>0.002737451181143078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.214174</v>
+      </c>
+      <c r="H24">
+        <v>4.428348</v>
+      </c>
+      <c r="I24">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J24">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>55.27063666666667</v>
+      </c>
+      <c r="N24">
+        <v>165.81191</v>
+      </c>
+      <c r="O24">
+        <v>0.3010451129769252</v>
+      </c>
+      <c r="P24">
+        <v>0.3158064782135008</v>
+      </c>
+      <c r="Q24">
+        <v>122.37880667078</v>
+      </c>
+      <c r="R24">
+        <v>734.27284002468</v>
+      </c>
+      <c r="S24">
+        <v>0.005481971669606393</v>
+      </c>
+      <c r="T24">
+        <v>0.003857262123188542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="H21">
-        <v>1.95419476364563</v>
-      </c>
-      <c r="I21">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="J21">
-        <v>0.01922657229774113</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.8791695598775</v>
-      </c>
-      <c r="N21">
-        <v>24.8791695598775</v>
-      </c>
-      <c r="O21">
-        <v>0.1441674681382846</v>
-      </c>
-      <c r="P21">
-        <v>0.1441674681382846</v>
-      </c>
-      <c r="Q21">
-        <v>48.61874287776436</v>
-      </c>
-      <c r="R21">
-        <v>48.61874287776436</v>
-      </c>
-      <c r="S21">
-        <v>0.002771846249143021</v>
-      </c>
-      <c r="T21">
-        <v>0.002771846249143021</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.214174</v>
+      </c>
+      <c r="H25">
+        <v>4.428348</v>
+      </c>
+      <c r="I25">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J25">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>54.89089866666666</v>
+      </c>
+      <c r="N25">
+        <v>164.672696</v>
+      </c>
+      <c r="O25">
+        <v>0.2989767765870066</v>
+      </c>
+      <c r="P25">
+        <v>0.3136367235724047</v>
+      </c>
+      <c r="Q25">
+        <v>121.538000664368</v>
+      </c>
+      <c r="R25">
+        <v>729.2280039862079</v>
+      </c>
+      <c r="S25">
+        <v>0.005444307675062099</v>
+      </c>
+      <c r="T25">
+        <v>0.003830760727647014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.214174</v>
+      </c>
+      <c r="H26">
+        <v>4.428348</v>
+      </c>
+      <c r="I26">
+        <v>0.01820980123343368</v>
+      </c>
+      <c r="J26">
+        <v>0.01221400569427471</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.7448065</v>
+      </c>
+      <c r="N26">
+        <v>51.489613</v>
+      </c>
+      <c r="O26">
+        <v>0.1402254189345309</v>
+      </c>
+      <c r="P26">
+        <v>0.09806746298324462</v>
+      </c>
+      <c r="Q26">
+        <v>57.003481187331</v>
+      </c>
+      <c r="R26">
+        <v>228.013924749324</v>
+      </c>
+      <c r="S26">
+        <v>0.002553477006672775</v>
+      </c>
+      <c r="T26">
+        <v>0.001197796551300424</v>
       </c>
     </row>
   </sheetData>
